--- a/medicine/Enfance/Ana_María_Shua/Ana_María_Shua.xlsx
+++ b/medicine/Enfance/Ana_María_Shua/Ana_María_Shua.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ana_Mar%C3%ADa_Shua</t>
+          <t>Ana_María_Shua</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ana María Shua (née le 22 avril 1951 à Buenos Aires) est une écrivaine argentine qui a publié plus de quatre-vingt livres dans de nombreux genres incluant : le roman, la nouvelle, la microfiction, la poésie, le théâtre, la littérature jeunesse, la littérature comique et le folklore Juif, l’anthologie, les essais, ainsi que les scénarios et les articles de journaux. Son œuvre a été traduite dans plusieurs langues parmi lesquelles l’anglais, le français, l’allemand, l’italien, le portugais, le néerlandais, le coréen, le japonais, le bulgare et le serbe. Ses ouvrages sont cités dans des anthologies à travers le monde entier. Elle a reçu de nombreux prix nationaux et internationaux, dont la Bourse Guggenheim, et reste un auteur contemporaine d’Argentine de premier ordre. Elle est particulièrement célèbre dans le monde hispanique des deux rives de l’Atlantique sous le nom de "la Reine de la Microfiction"[1],[2],[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ana María Shua (née le 22 avril 1951 à Buenos Aires) est une écrivaine argentine qui a publié plus de quatre-vingt livres dans de nombreux genres incluant : le roman, la nouvelle, la microfiction, la poésie, le théâtre, la littérature jeunesse, la littérature comique et le folklore Juif, l’anthologie, les essais, ainsi que les scénarios et les articles de journaux. Son œuvre a été traduite dans plusieurs langues parmi lesquelles l’anglais, le français, l’allemand, l’italien, le portugais, le néerlandais, le coréen, le japonais, le bulgare et le serbe. Ses ouvrages sont cités dans des anthologies à travers le monde entier. Elle a reçu de nombreux prix nationaux et internationaux, dont la Bourse Guggenheim, et reste un auteur contemporaine d’Argentine de premier ordre. Elle est particulièrement célèbre dans le monde hispanique des deux rives de l’Atlantique sous le nom de "la Reine de la Microfiction".
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana_Mar%C3%ADa_Shua</t>
+          <t>Ana_María_Shua</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La première œuvre qu’écrivit Shua fut un recueil de poèmes, El Sol y Yo, lorsqu’elle avait seize ans, en 1967, pour lequel elle reçut le Grand Prix d’Honneur, une récompense décernée par la Société Argentine des Écrivains. Elle fit ses études à l’Université de Buenos Aires et obtint un diplôme de Maîtrise en Art et Littérature. Durant la dernière dictature militaire en Argentine, souvent appelée le Processus de Réorganisation Nationale, elle fut exilée en France où elle travailla pour le magazine espagnol Cambio 16. Une fois de retour en Argentine, elle publia son premier roman, intitulée Soy Paciente, en 1980, qui lui permit de recevoir une récompense attribuée par la maison d’édition Losada. En 1984, elle écrivit La Señuera, un recueil de microfictions, genre littéraire dans lequel elle continuera de pratiquer les années suivantes, et qui fit d’elle l’une des représentants du genre les plus distingués. Elle a travaillé en tant que journaliste, agent de publicité, scénariste, et a adapté la plupart de ses œuvres. Elle a également écrit des livres pour la jeunesse, pour lesquels elle a reçu de nombreuses récompenses internationales.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ana_Mar%C3%ADa_Shua</t>
+          <t>Ana_María_Shua</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,28 +558,135 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Soy paciente (1980)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Soy paciente (1980)
 Los amores de Laurita (1984)
 El libro de los recuerdos (1994)
 La muerte como efecto secundario (1997)
-El peso de la tentación (2007)
-Recueils de nouvelles
-Los días de pesca (1981)
+El peso de la tentación (2007)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ana_María_Shua</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ana_Mar%C3%ADa_Shua</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Los días de pesca (1981)
 Viajando se conoce gente (1988)
 Como una buena madre (2001)
-Historias verdaderas (2004)
-Recueils de microfictions
-La sueñera (1984)
+Historias verdaderas (2004)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ana_María_Shua</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ana_Mar%C3%ADa_Shua</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recueils de microfictions</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La sueñera (1984)
 Casa de geishas (1992)
 Botánica del caos (Botanique du Chaos, 2000)
 Temporada de fantasmas (la Saison des Fantômes, 2004)
 Cazadores de Letras (2009)
 Microfictions (2009)
 Quick fix (2008)
-Fenómenos de circo
-Littérature jeunesse
-La batalla de los elefantes y los cocodrilos (1988)
+Fenómenos de circo</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ana_María_Shua</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ana_Mar%C3%ADa_Shua</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La batalla de los elefantes y los cocodrilos (1988)
 La fábrica del terror (1991), inscrite sur la "IBBY Honour List" par l'Union Internationale pour les Livres de Jeunesse
 La puerta para salir del mundo (1992)
 Cuentos judíos con fantasmas y demonios (1994)
@@ -576,15 +697,117 @@
 Los monstruos del Riachuelo (2001)
 Planeta miedo (2002)
 Su primera zanahoria (2005)
-Un ciervo muy famoso (2005)
-Littérature comique
-El marido argentino promedio (1991)
-Risas y emociones en la cocina judía (2003)
-Recueils de poèmes
-El sol y yo (1967)
-"Yo quiero que mis papas salgan de noche"
-Essais
-Libros prohibidos (2003)</t>
+Un ciervo muy famoso (2005)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ana_María_Shua</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ana_Mar%C3%ADa_Shua</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Littérature comique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>El marido argentino promedio (1991)
+Risas y emociones en la cocina judía (2003)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ana_María_Shua</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ana_Mar%C3%ADa_Shua</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Recueils de poèmes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>El sol y yo (1967)
+"Yo quiero que mis papas salgan de noche"</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ana_María_Shua</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ana_Mar%C3%ADa_Shua</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Libros prohibidos (2003)</t>
         </is>
       </c>
     </row>
